--- a/jxls-demo-1/src/main/resources/firstTemplate.xlsx
+++ b/jxls-demo-1/src/main/resources/firstTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lundegaard\JXLSdemo\jxls-demo-1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2EB91C-5ADA-4328-B665-49F3358C0A85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93589E4A-ACA8-4188-B910-71C289A314E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12810" xr2:uid="{F9F9C28E-AC2B-44DC-85F1-1BB10F8ED183}"/>
   </bookViews>
@@ -58,7 +58,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="F4")</t>
+jx:area(lastCell="G4")</t>
         </r>
       </text>
     </comment>
@@ -82,7 +82,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="persons" groupBy="salary" groupOrder="desc" lastCell="F3")
+jx:each(items="persons" groupBy="salary" groupOrder="desc" lastCell="G3")
 </t>
         </r>
       </text>
@@ -107,7 +107,31 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="_group.items" var="person" lastCell="F3")</t>
+jx:each(items="_group.items" var="person" lastCell="G3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{CBDB2D4A-FD89-4F35-8373-5D52C65D760E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jan Jaroš:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:if(condition="person.bonus==true", lastCell="G3")</t>
         </r>
       </text>
     </comment>
@@ -116,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -140,13 +164,22 @@
   </si>
   <si>
     <t>${person.surname}</t>
+  </si>
+  <si>
+    <t>With bonus</t>
+  </si>
+  <si>
+    <t>$[F3+${bonus}]</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +220,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,13 +260,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BD88B3-1A8F-451C-B939-B56A72082243}">
-  <dimension ref="B2:F3"/>
+  <dimension ref="B2:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,9 +597,10 @@
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,8 +613,11 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -576,6 +629,18 @@
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <f>SUM(F3)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
